--- a/tests/adaptive400/rain2_t097_nosave_lin150k.xlsx
+++ b/tests/adaptive400/rain2_t097_nosave_lin150k.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robrecht\IdeaProjects\thesis\tests\adaptive400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C1F3A3-6DF4-408F-81B9-4CCDEFA3D3BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A990F007-AA82-4DF4-8281-B74A1954257C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22384,16 +22384,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>83819</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22420,16 +22420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22778,10 +22778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ABW10"/>
+  <dimension ref="A1:ABW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39323,12 +39323,30 @@
     </row>
     <row r="10" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f>AVERAGE(B2:NM2)</f>
+        <v>0.53115625383703025</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(NN2:ABW2)</f>
+        <v>0.19878038216079902</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(2:2)</f>
+        <v>0.36541148582781557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>AVERAGE(B5:NM5)</f>
+        <v>0.1520878848777554</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(NN5:ABW5)</f>
+        <v>1.4643054044448753</v>
+      </c>
+      <c r="C11">
         <f>AVERAGE(5:5)</f>
         <v>0.80644702130189305</v>
-      </c>
-      <c r="B10">
-        <f>AVERAGE(NN5:ABW5)</f>
-        <v>1.4643054044448753</v>
       </c>
     </row>
   </sheetData>

--- a/tests/adaptive400/rain2_t097_nosave_lin150k.xlsx
+++ b/tests/adaptive400/rain2_t097_nosave_lin150k.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robrecht\IdeaProjects\thesis\tests\adaptive400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7EB99-BBAF-4E03-9282-D3CF2D0A2C79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FB0624-EE78-4695-96D6-1EE6D04581C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -22786,8 +22786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ABW20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
